--- a/streaming/simple_counters.xlsx
+++ b/streaming/simple_counters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlslim-code-samples\streaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFE9F7C-9F36-4656-92C1-F909F5149485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9885EA57-80E8-4FB9-BA29-5290F5E9FFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6069" yWindow="3266" windowWidth="24685" windowHeight="13054" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
+    <workbookView xWindow="5494" yWindow="1954" windowWidth="24686" windowHeight="13055" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Workbook location</t>
   </si>
@@ -80,9 +80,19 @@
     <t>Async</t>
   </si>
   <si>
+    <t>Regular Numpy Array Counter</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Async Numpy Array Counter</t>
+  </si>
+  <si>
     <t>This workbook shows how simple generator functions can stream data into Excel using xlSlim.
 The Python module simple_counters.py has two counter functions. One is a regular Python function with a yield, which turns the function into a generator function. The second is slightly more advanced Python function that asynchronously generates values.
-Cells C6 and D6 show how the functions are exposed in Excel as regular worksheet functions, all the complexity of streaming data is taken care of internally within xlSlim.</t>
+Cells C6 and D6 show how the functions are exposed in Excel as regular worksheet functions, all the complexity of streaming data is taken care of internally within xlSlim.
+Cells A10 and C10 show how numpy arrays can be streamed into Excel. Indeed any supported objects can be streamed. Cells B13 and D13 show how the object cache handles can be passed into xlSlim functions just the same as other xlSlim functions returning cached objects.</t>
   </si>
 </sst>
 </file>
@@ -261,6 +271,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -279,7 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent5" xfId="2" builtinId="47"/>
@@ -304,22 +314,40 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_a6f06a8b5adf4d248cd54959ead9b39b">
+    <main first="rtdsrv_4ad5b0806a0d4c0c8dd356af92c2f2aa">
       <tp>
-        <v>99</v>
+        <v>49</v>
+        <stp/>
+        <stp>counter</stp>
+        <stp>50</stp>
+        <stp>2</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_4ad5b0806a0d4c0c8dd356af92c2f2aa">
+      <tp t="s">
+        <v>async_array_counter/50/2@50</v>
+        <stp/>
+        <stp>async_array_counter</stp>
+        <stp>50</stp>
+        <stp>2</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>array_counter/50/2@50</v>
+        <stp/>
+        <stp>array_counter</stp>
+        <stp>50</stp>
+        <stp>2</stp>
+        <tr r="A10" s="1"/>
+      </tp>
+      <tp>
+        <v>49</v>
         <stp/>
         <stp>async_counter</stp>
-        <stp>100</stp>
+        <stp>50</stp>
         <stp>2</stp>
         <tr r="D6" s="1"/>
-      </tp>
-      <tp>
-        <v>99</v>
-        <stp/>
-        <stp>counter</stp>
-        <stp>100</stp>
-        <stp>2</stp>
-        <tr r="C6" s="1"/>
       </tp>
     </main>
   </volType>
@@ -626,7 +654,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -645,16 +673,16 @@
         <f t="array" ref="B1">_xll.WorkbookLocation()</f>
         <v>D:\github\xlslim-code-samples\streaming</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -664,14 +692,14 @@
         <f>B1&amp;"\simple_counters.py"</f>
         <v>D:\github\xlslim-code-samples\streaming\simple_counters.py</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -681,24 +709,24 @@
         <f t="array" ref="B3">_xll.RegisterPyModule(B2)</f>
         <v>Registered D:\github\xlslim-code-samples\streaming\simple_counters.py</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="5" t="s">
@@ -707,124 +735,180 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12">
-        <v>100</v>
+      <c r="B6" s="6">
+        <v>50</v>
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.counter(B6,B7)</f>
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" cm="1">
         <f t="array" ref="D6">_xll.async_counter(B6,B7)</f>
-        <v>99</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
+      <c r="A10" s="2" t="str" cm="1">
+        <f t="array" ref="A10">_xll.array_counter(B6,B7)</f>
+        <v>array_counter/50/2@50</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="str" cm="1">
+        <f t="array" ref="C10">_xll.async_array_counter(B6,B7)</f>
+        <v>async_array_counter/50/2@50</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
+      <c r="A11" s="2" cm="1">
+        <f t="array" ref="A11:B12">_xll.ViewPyObject(A10)</f>
+        <v>49</v>
+      </c>
+      <c r="B11" s="2">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" cm="1">
+        <f t="array" ref="C11:D12">_xll.ViewPyObject(C10)</f>
+        <v>49</v>
+      </c>
+      <c r="D11" s="2">
+        <v>49</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
+      <c r="A12" s="2">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2">
+        <v>49</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" cm="1">
+        <f t="array" ref="B13">_xll.array_sum_from_handle(A10)</f>
+        <v>196</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" cm="1">
+        <f t="array" ref="D13">_xll.array_sum_from_handle(C10)</f>
+        <v>196</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -836,18 +920,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -983,14 +1067,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1002,6 +1078,14 @@
     <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/streaming/simple_counters.xlsx
+++ b/streaming/simple_counters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlslim-code-samples\streaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9885EA57-80E8-4FB9-BA29-5290F5E9FFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B49D443-C24A-4636-BAEA-3973F1421012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5494" yWindow="1954" windowWidth="24686" windowHeight="13055" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -89,10 +89,34 @@
     <t>Async Numpy Array Counter</t>
   </si>
   <si>
-    <t>This workbook shows how simple generator functions can stream data into Excel using xlSlim.
-The Python module simple_counters.py has two counter functions. One is a regular Python function with a yield, which turns the function into a generator function. The second is slightly more advanced Python function that asynchronously generates values.
+    <r>
+      <t xml:space="preserve">This workbook shows how simple generator functions can stream data into Excel using xlSlim.
+The Python module simple_counters.py has two counter functions. One is a regular Python function with a yield, which turns the function into a generator function. The second is a slightly more advanced Python function that asynchronously generates values.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Always use Python async functions where possible, they are faster.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Cells C6 and D6 show how the functions are exposed in Excel as regular worksheet functions, all the complexity of streaming data is taken care of internally within xlSlim.
 Cells A10 and C10 show how numpy arrays can be streamed into Excel. Indeed any supported objects can be streamed. Cells B13 and D13 show how the object cache handles can be passed into xlSlim functions just the same as other xlSlim functions returning cached objects.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -314,40 +338,40 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_4ad5b0806a0d4c0c8dd356af92c2f2aa">
+    <main first="rtdsrv_00ce64b15fcf4cbb99fe6e824cf7bdca">
       <tp>
-        <v>49</v>
+        <v>33</v>
         <stp/>
         <stp>counter</stp>
-        <stp>50</stp>
-        <stp>2</stp>
+        <stp>32003</stp>
         <tr r="C6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_4ad5b0806a0d4c0c8dd356af92c2f2aa">
+    <main first="rtdsrv_00ce64b15fcf4cbb99fe6e824cf7bdca">
       <tp t="s">
-        <v>async_array_counter/50/2@50</v>
+        <v>RTD/32003@2067</v>
         <stp/>
         <stp>async_array_counter</stp>
-        <stp>50</stp>
-        <stp>2</stp>
+        <stp>32003</stp>
         <tr r="C10" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_00ce64b15fcf4cbb99fe6e824cf7bdca">
+      <tp>
+        <v>33</v>
+        <stp/>
+        <stp>async_counter</stp>
+        <stp>32003</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_00ce64b15fcf4cbb99fe6e824cf7bdca">
       <tp t="s">
-        <v>array_counter/50/2@50</v>
+        <v>RTD/32003@2068</v>
         <stp/>
         <stp>array_counter</stp>
-        <stp>50</stp>
-        <stp>2</stp>
+        <stp>32003</stp>
         <tr r="A10" s="1"/>
-      </tp>
-      <tp>
-        <v>49</v>
-        <stp/>
-        <stp>async_counter</stp>
-        <stp>50</stp>
-        <stp>2</stp>
-        <tr r="D6" s="1"/>
       </tp>
     </main>
   </volType>
@@ -654,7 +678,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -749,15 +773,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.counter(B6,B7)</f>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" cm="1">
         <f t="array" ref="D6">_xll.async_counter(B6,B7)</f>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -773,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -813,12 +837,12 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="str" cm="1">
         <f t="array" ref="A10">_xll.array_counter(B6,B7)</f>
-        <v>array_counter/50/2@50</v>
+        <v>RTD/32003@2068</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" ref="C10">_xll.async_array_counter(B6,B7)</f>
-        <v>async_array_counter/50/2@50</v>
+        <v>RTD/32003@2067</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="9"/>
@@ -833,17 +857,17 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2" cm="1">
         <f t="array" ref="A11:B12">_xll.ViewPyObject(A10)</f>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" cm="1">
         <f t="array" ref="C11:D12">_xll.ViewPyObject(C10)</f>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -856,16 +880,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -882,14 +906,14 @@
       </c>
       <c r="B13" s="2" cm="1">
         <f t="array" ref="B13">_xll.array_sum_from_handle(A10)</f>
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" cm="1">
         <f t="array" ref="D13">_xll.array_sum_from_handle(C10)</f>
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -920,21 +944,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056A28DAB99C48B469009752D21F8474A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3725108ba1e248dd961cbde49d36f75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58a034177a2e5a667d336d2ca3036430" ns3:_="">
     <xsd:import namespace="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
@@ -1066,31 +1075,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C9D94B-68A3-4C5A-8543-29DBB1AA8066}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1106,4 +1106,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/streaming/simple_counters.xlsx
+++ b/streaming/simple_counters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlslim-code-samples\streaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B49D443-C24A-4636-BAEA-3973F1421012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953DBC2C-4F8B-4DEC-A6F1-9296B2D5CAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
+    <workbookView xWindow="6506" yWindow="2486" windowWidth="24685" windowHeight="13054" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -238,46 +238,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -286,7 +246,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -299,19 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -338,39 +286,39 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_00ce64b15fcf4cbb99fe6e824cf7bdca">
+    <main first="rtdsrv_2a05dc1e2b5242db93d1dd18b7453eb4">
       <tp>
-        <v>33</v>
+        <v>999</v>
         <stp/>
         <stp>counter</stp>
-        <stp>32003</stp>
+        <stp>32993</stp>
         <tr r="C6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_00ce64b15fcf4cbb99fe6e824cf7bdca">
+    <main first="rtdsrv_2a05dc1e2b5242db93d1dd18b7453eb4">
       <tp t="s">
-        <v>RTD/32003@2067</v>
+        <v>RTD/32993@3610</v>
         <stp/>
         <stp>async_array_counter</stp>
-        <stp>32003</stp>
+        <stp>32993</stp>
         <tr r="C10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_00ce64b15fcf4cbb99fe6e824cf7bdca">
+    <main first="rtdsrv_2a05dc1e2b5242db93d1dd18b7453eb4">
       <tp>
-        <v>33</v>
+        <v>999</v>
         <stp/>
         <stp>async_counter</stp>
-        <stp>32003</stp>
+        <stp>32993</stp>
         <tr r="D6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_00ce64b15fcf4cbb99fe6e824cf7bdca">
+    <main first="rtdsrv_2a05dc1e2b5242db93d1dd18b7453eb4">
       <tp t="s">
-        <v>RTD/32003@2068</v>
+        <v>RTD/32993@4000</v>
         <stp/>
         <stp>array_counter</stp>
-        <stp>32003</stp>
+        <stp>32993</stp>
         <tr r="A10" s="1"/>
       </tp>
     </main>
@@ -675,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774E7E1C-D275-4DD4-9028-FA14541EA3B8}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -706,7 +654,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -716,14 +664,14 @@
         <f>B1&amp;"\simple_counters.py"</f>
         <v>D:\github\xlslim-code-samples\streaming\simple_counters.py</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -733,24 +681,24 @@
         <f t="array" ref="B3">_xll.RegisterPyModule(B2)</f>
         <v>Registered D:\github\xlslim-code-samples\streaming\simple_counters.py</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="5" t="s">
@@ -759,14 +707,14 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
@@ -777,46 +725,46 @@
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.counter(B6,B7)</f>
-        <v>33</v>
+        <v>999</v>
       </c>
       <c r="D6" s="2" cm="1">
         <f t="array" ref="D6">_xll.async_counter(B6,B7)</f>
-        <v>33</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
+        <v>999</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+        <v>1000</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
@@ -825,80 +773,80 @@
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="str" cm="1">
         <f t="array" ref="A10">_xll.array_counter(B6,B7)</f>
-        <v>RTD/32003@2068</v>
+        <v>RTD/32993@4000</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" ref="C10">_xll.async_array_counter(B6,B7)</f>
-        <v>RTD/32003@2067</v>
+        <v>RTD/32993@3610</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2" cm="1">
         <f t="array" ref="A11:B12">_xll.ViewPyObject(A10)</f>
-        <v>33</v>
+        <v>999</v>
       </c>
       <c r="B11" s="2">
-        <v>33</v>
+        <v>999</v>
       </c>
       <c r="C11" s="2" cm="1">
         <f t="array" ref="C11:D12">_xll.ViewPyObject(C10)</f>
-        <v>33</v>
+        <v>999</v>
       </c>
       <c r="D11" s="2">
-        <v>33</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
+        <v>999</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>33</v>
+        <v>999</v>
       </c>
       <c r="B12" s="2">
-        <v>33</v>
+        <v>999</v>
       </c>
       <c r="C12" s="2">
-        <v>33</v>
+        <v>999</v>
       </c>
       <c r="D12" s="2">
-        <v>33</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
+        <v>999</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
@@ -906,37 +854,57 @@
       </c>
       <c r="B13" s="2" cm="1">
         <f t="array" ref="B13">_xll.array_sum_from_handle(A10)</f>
-        <v>132</v>
+        <v>3996</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" cm="1">
         <f t="array" ref="D13">_xll.array_sum_from_handle(C10)</f>
-        <v>132</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
+        <v>3996</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:L14"/>
+    <mergeCell ref="E1:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1076,18 +1044,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,14 +1077,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1130,4 +1090,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/streaming/simple_counters.xlsx
+++ b/streaming/simple_counters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlslim-code-samples\streaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953DBC2C-4F8B-4DEC-A6F1-9296B2D5CAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8685C00B-8ECE-4EBD-95DB-0F715579EF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6506" yWindow="2486" windowWidth="24685" windowHeight="13054" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
+    <workbookView xWindow="1114" yWindow="909" windowWidth="24686" windowHeight="13054" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,39 +286,37 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_2a05dc1e2b5242db93d1dd18b7453eb4">
+    <main first="rtdsrv_fd10f3797bca4254b5a22addfd062a1e">
+      <tp t="s">
+        <v>RTD/32093@3587</v>
+        <stp/>
+        <stp>async_array_counter</stp>
+        <stp>32093</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_fd10f3797bca4254b5a22addfd062a1e">
+      <tp>
+        <v>999</v>
+        <stp/>
+        <stp>async_counter</stp>
+        <stp>32093</stp>
+        <tr r="D6" s="1"/>
+      </tp>
       <tp>
         <v>999</v>
         <stp/>
         <stp>counter</stp>
-        <stp>32993</stp>
+        <stp>32093</stp>
         <tr r="C6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_2a05dc1e2b5242db93d1dd18b7453eb4">
+    <main first="rtdsrv_fd10f3797bca4254b5a22addfd062a1e">
       <tp t="s">
-        <v>RTD/32993@3610</v>
-        <stp/>
-        <stp>async_array_counter</stp>
-        <stp>32993</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_2a05dc1e2b5242db93d1dd18b7453eb4">
-      <tp>
-        <v>999</v>
-        <stp/>
-        <stp>async_counter</stp>
-        <stp>32993</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_2a05dc1e2b5242db93d1dd18b7453eb4">
-      <tp t="s">
-        <v>RTD/32993@4000</v>
+        <v>RTD/32093@4000</v>
         <stp/>
         <stp>array_counter</stp>
-        <stp>32993</stp>
+        <stp>32093</stp>
         <tr r="A10" s="1"/>
       </tp>
     </main>
@@ -626,18 +624,18 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.69140625" customWidth="1"/>
     <col min="2" max="2" width="15.84375" customWidth="1"/>
     <col min="3" max="3" width="18.69140625" customWidth="1"/>
     <col min="4" max="4" width="27.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -745,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -785,12 +783,12 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="str" cm="1">
         <f t="array" ref="A10">_xll.array_counter(B6,B7)</f>
-        <v>RTD/32993@4000</v>
+        <v>RTD/32093@4000</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" ref="C10">_xll.async_array_counter(B6,B7)</f>
-        <v>RTD/32993@3610</v>
+        <v>RTD/32093@3587</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="8"/>
@@ -912,6 +910,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056A28DAB99C48B469009752D21F8474A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3725108ba1e248dd961cbde49d36f75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58a034177a2e5a667d336d2ca3036430" ns3:_="">
     <xsd:import namespace="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
@@ -1043,12 +1047,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1059,6 +1057,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C9D94B-68A3-4C5A-8543-29DBB1AA8066}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1076,22 +1090,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
   <ds:schemaRefs>
